--- a/solutions/azure/devops/enterprise-platform/presales/level-of-effort-estimate.xlsx
+++ b/solutions/azure/devops/enterprise-platform/presales/level-of-effort-estimate.xlsx
@@ -13,7 +13,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOE" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$1:$E$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Scope Assumptions'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -21,8 +22,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,##0"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,40 +35,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="0044546A"/>
+      <color rgb="005D6D7E"/>
       <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI Semibold"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="00000000"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI Semibold"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
@@ -75,7 +95,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -84,14 +104,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
       </patternFill>
     </fill>
     <fill>
@@ -100,8 +132,20 @@
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCC"/>
+        <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,38 +154,123 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -224,10 +353,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -540,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,83 +677,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Level Of Effort Estimate</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Presales Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Enterprise Platform</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>[Customer Name]</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -635,9 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -648,46 +801,727 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Column 1</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Column 2</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Column 3</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>Column 4</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Column 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="26" customHeight="1"/>
-    <row r="3" ht="26" customHeight="1"/>
-    <row r="4" ht="26" customHeight="1"/>
-    <row r="5" ht="26" customHeight="1"/>
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>Baseline Assumption</t>
+        </is>
+      </c>
+      <c r="C1" s="19" t="inlineStr">
+        <is>
+          <t>Current Scope</t>
+        </is>
+      </c>
+      <c r="D1" s="19" t="inlineStr">
+        <is>
+          <t>Small (1x)</t>
+        </is>
+      </c>
+      <c r="E1" s="19" t="inlineStr">
+        <is>
+          <t>Medium (2x)</t>
+        </is>
+      </c>
+      <c r="F1" s="19" t="inlineStr">
+        <is>
+          <t>Large (3x)</t>
+        </is>
+      </c>
+      <c r="G1" s="19" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H1" s="19" t="inlineStr"/>
+      <c r="I1" s="19" t="inlineStr"/>
+      <c r="J1" s="19" t="inlineStr"/>
+      <c r="K1" s="19" t="inlineStr"/>
+    </row>
+    <row r="2" ht="26" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Solution Scope</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Projects/Repositories</t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t>10-20 repositories</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>10-20 repositories</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced projects/repositories</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale projects/repositories</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Projects/Repositories</t>
+        </is>
+      </c>
+      <c r="H2" s="10" t="inlineStr"/>
+      <c r="I2" s="10" t="inlineStr"/>
+      <c r="J2" s="10" t="inlineStr"/>
+      <c r="K2" s="10" t="inlineStr"/>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Solution Scope</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>CI/CD Pipelines</t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t>25-50 pipelines</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>25-50 pipelines</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced ci/cd pipelines</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale ci/cd pipelines</t>
+        </is>
+      </c>
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for CI/CD Pipelines</t>
+        </is>
+      </c>
+      <c r="H3" s="21" t="inlineStr"/>
+      <c r="I3" s="21" t="inlineStr"/>
+      <c r="J3" s="21" t="inlineStr"/>
+      <c r="K3" s="21" t="inlineStr"/>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>External Integrations</t>
+        </is>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t>GitHub SonarQube Artifactory</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>GitHub SonarQube Artifactory</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced external integrations</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale external integrations</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for External Integrations</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="inlineStr"/>
+      <c r="I4" s="10" t="inlineStr"/>
+      <c r="J4" s="10" t="inlineStr"/>
+      <c r="K4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>Deployment Targets</t>
+        </is>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t>Azure Kubernetes Service VMs</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>Azure Kubernetes Service VMs</t>
+        </is>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced deployment targets</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale deployment targets</t>
+        </is>
+      </c>
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Deployment Targets</t>
+        </is>
+      </c>
+      <c r="H5" s="21" t="inlineStr"/>
+      <c r="I5" s="21" t="inlineStr"/>
+      <c r="J5" s="21" t="inlineStr"/>
+      <c r="K5" s="21" t="inlineStr"/>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>User Base</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Total Users</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>50 developers</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>50 developers</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced total users</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale total users</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Total Users</t>
+        </is>
+      </c>
+      <c r="H6" s="10" t="inlineStr"/>
+      <c r="I6" s="10" t="inlineStr"/>
+      <c r="J6" s="10" t="inlineStr"/>
+      <c r="K6" s="10" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>User Base</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>User Roles</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>4 roles (dev lead ops admin)</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>4 roles (dev lead ops admin)</t>
+        </is>
+      </c>
+      <c r="E7" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced user roles</t>
+        </is>
+      </c>
+      <c r="F7" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale user roles</t>
+        </is>
+      </c>
+      <c r="G7" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for User Roles</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="inlineStr"/>
+      <c r="I7" s="21" t="inlineStr"/>
+      <c r="J7" s="21" t="inlineStr"/>
+      <c r="K7" s="21" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>Data Volume</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Build Artifacts</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>100 GB storage</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>100 GB storage</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced build artifacts</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale build artifacts</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Build Artifacts</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="inlineStr"/>
+      <c r="I8" s="10" t="inlineStr"/>
+      <c r="J8" s="10" t="inlineStr"/>
+      <c r="K8" s="10" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Data Volume</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>Pipeline Runs</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>500 runs/month</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>500 runs/month</t>
+        </is>
+      </c>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced pipeline runs</t>
+        </is>
+      </c>
+      <c r="F9" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale pipeline runs</t>
+        </is>
+      </c>
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Pipeline Runs</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr"/>
+      <c r="I9" s="21" t="inlineStr"/>
+      <c r="J9" s="21" t="inlineStr"/>
+      <c r="K9" s="21" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>Deployment Regions</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>Single Azure region</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Single Azure region</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced deployment regions</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale deployment regions</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Deployment Regions</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr"/>
+      <c r="J10" s="10" t="inlineStr"/>
+      <c r="K10" s="10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Availability Requirements</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>Standard (99.5%)</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>Standard (99.5%)</t>
+        </is>
+      </c>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced availability requirements</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale availability requirements</t>
+        </is>
+      </c>
+      <c r="G11" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Availability Requirements</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="21" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Infrastructure Complexity</t>
+        </is>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t>Azure DevOps + self-hosted agents</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Azure DevOps + self-hosted agents</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced infrastructure complexity</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale infrastructure complexity</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Infrastructure Complexity</t>
+        </is>
+      </c>
+      <c r="H12" s="10" t="inlineStr"/>
+      <c r="I12" s="10" t="inlineStr"/>
+      <c r="J12" s="10" t="inlineStr"/>
+      <c r="K12" s="10" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="inlineStr">
+        <is>
+          <t>Security &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>Security Requirements</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>Service connections branch policies</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>Service connections branch policies</t>
+        </is>
+      </c>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced security requirements</t>
+        </is>
+      </c>
+      <c r="F13" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale security requirements</t>
+        </is>
+      </c>
+      <c r="G13" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Security Requirements</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="inlineStr"/>
+      <c r="I13" s="21" t="inlineStr"/>
+      <c r="J13" s="21" t="inlineStr"/>
+      <c r="K13" s="21" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>Security &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Compliance Frameworks</t>
+        </is>
+      </c>
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced compliance frameworks</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale compliance frameworks</t>
+        </is>
+      </c>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Compliance Frameworks</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr"/>
+      <c r="I14" s="10" t="inlineStr"/>
+      <c r="J14" s="10" t="inlineStr"/>
+      <c r="K14" s="10" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>Build Performance</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>Standard build times</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>Standard build times</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced build performance</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale build performance</t>
+        </is>
+      </c>
+      <c r="G15" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Build Performance</t>
+        </is>
+      </c>
+      <c r="H15" s="21" t="inlineStr"/>
+      <c r="I15" s="21" t="inlineStr"/>
+      <c r="J15" s="21" t="inlineStr"/>
+      <c r="K15" s="21" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Deployment Frequency</t>
+        </is>
+      </c>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>Daily deployments</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Daily deployments</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced deployment frequency</t>
+        </is>
+      </c>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Enterprise-scale deployment frequency</t>
+        </is>
+      </c>
+      <c r="G16" s="10" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Deployment Frequency</t>
+        </is>
+      </c>
+      <c r="H16" s="10" t="inlineStr"/>
+      <c r="I16" s="10" t="inlineStr"/>
+      <c r="J16" s="10" t="inlineStr"/>
+      <c r="K16" s="10" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>Environment</t>
+        </is>
+      </c>
+      <c r="B17" s="21" t="inlineStr">
+        <is>
+          <t>Deployment Environments</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>3 environments (dev staging prod)</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>3 environments (dev staging prod)</t>
+        </is>
+      </c>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Enhanced deployment environments</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
+        <is>
+          <t>Enterprise-scale deployment environments</t>
+        </is>
+      </c>
+      <c r="G17" s="21" t="inlineStr">
+        <is>
+          <t>Sizing parameter for Deployment Environments</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="inlineStr"/>
+      <c r="I17" s="21" t="inlineStr"/>
+      <c r="J17" s="21" t="inlineStr"/>
+      <c r="K17" s="21" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr"/>
+      <c r="B18" s="10" t="inlineStr"/>
+      <c r="C18" s="10" t="inlineStr"/>
+      <c r="D18" s="10" t="inlineStr"/>
+      <c r="E18" s="10" t="inlineStr"/>
+      <c r="F18" s="10" t="inlineStr"/>
+      <c r="G18" s="10" t="inlineStr"/>
+      <c r="H18" s="10" t="inlineStr"/>
+      <c r="I18" s="10" t="inlineStr"/>
+      <c r="J18" s="10" t="inlineStr"/>
+      <c r="K18" s="10" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:E6"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>
 
@@ -697,7 +1531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,140 +1546,424 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>INSTRUCTIONS: How to Use Estimate Settings</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr"/>
+      <c r="A2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>This sheet contains phase-based multiplier variables that control effort scaling for each project phase.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="23" t="inlineStr">
         <is>
           <t>The EO Sales Engineer updates these multipliers based on customer scope compared to baseline assumptions.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr"/>
+      <c r="A5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="24" t="inlineStr">
         <is>
           <t>How It Works:</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>1. Review customer requirements from Discovery Questionnaire</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="A8" s="23" t="inlineStr">
         <is>
           <t>2. Compare customer scope to Baseline Assumptions (see 'Scope Assumptions' sheet)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="A9" s="23" t="inlineStr">
         <is>
           <t>3. Update YELLOW HIGHLIGHTED multiplier values below (Column C) for each phase</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="A10" s="23" t="inlineStr">
         <is>
           <t>4. All tasks in that phase on the 'LOE' sheet automatically update their Actual Hours</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="A11" s="23" t="inlineStr">
         <is>
           <t>5. Total cost recalculates automatically</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr"/>
+      <c r="A12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="24" t="inlineStr">
         <is>
           <t>Multiplier Guidelines:</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="A14" s="23" t="inlineStr">
         <is>
           <t>• 1.0 = Matches baseline exactly (Small scope)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="A15" s="23" t="inlineStr">
         <is>
           <t>• 1.5-2.0 = Medium scope (moderately above baseline)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="inlineStr">
+      <c r="A16" s="23" t="inlineStr">
         <is>
           <t>• 2.0-3.0 = Large scope (significantly above baseline)</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="A17" s="23" t="inlineStr">
         <is>
           <t>• 3.0+ = Very large/complex (substantially above baseline, document rationale)</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr"/>
+      <c r="A18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="inlineStr">
+      <c r="A19" s="23" t="inlineStr">
         <is>
           <t>Example: Customer needs comprehensive testing due to compliance → Set TESTING_MX to 2.0</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="inlineStr">
+      <c r="A20" s="23" t="inlineStr">
         <is>
           <t>Example: Complex architecture requiring more technical oversight → Set LEADERSHIP_MX to 1.5</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="inlineStr"/>
+      <c r="A21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" s="25" t="inlineStr">
         <is>
           <t>ESTIMATE SETTINGS - Update phase multipliers in Column C below:</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="32" customHeight="1"/>
+    <row r="23" ht="32" customHeight="1">
+      <c r="A23" s="19" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
+        <is>
+          <t>Variable Name</t>
+        </is>
+      </c>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>Multiplier</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>Description / Applies To Tasks</t>
+        </is>
+      </c>
+      <c r="E23" s="19" t="inlineStr"/>
+      <c r="F23" s="19" t="inlineStr"/>
+      <c r="G23" s="19" t="inlineStr"/>
+      <c r="H23" s="19" t="inlineStr"/>
+      <c r="I23" s="19" t="inlineStr"/>
+      <c r="J23" s="19" t="inlineStr"/>
+      <c r="K23" s="19" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>DISCOVERY_MX</t>
+        </is>
+      </c>
+      <c r="C24" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>All Discovery phase tasks</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr"/>
+      <c r="F24" s="10" t="inlineStr"/>
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="10" t="inlineStr"/>
+      <c r="I24" s="10" t="inlineStr"/>
+      <c r="J24" s="10" t="inlineStr"/>
+      <c r="K24" s="10" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>PLANNING_MX</t>
+        </is>
+      </c>
+      <c r="C25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21" t="inlineStr">
+        <is>
+          <t>All Planning phase tasks</t>
+        </is>
+      </c>
+      <c r="E25" s="21" t="inlineStr"/>
+      <c r="F25" s="21" t="inlineStr"/>
+      <c r="G25" s="21" t="inlineStr"/>
+      <c r="H25" s="21" t="inlineStr"/>
+      <c r="I25" s="21" t="inlineStr"/>
+      <c r="J25" s="21" t="inlineStr"/>
+      <c r="K25" s="21" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>DEVELOPMENT_MX</t>
+        </is>
+      </c>
+      <c r="C26" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>All Development phase tasks</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr"/>
+      <c r="F26" s="10" t="inlineStr"/>
+      <c r="G26" s="10" t="inlineStr"/>
+      <c r="H26" s="10" t="inlineStr"/>
+      <c r="I26" s="10" t="inlineStr"/>
+      <c r="J26" s="10" t="inlineStr"/>
+      <c r="K26" s="10" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>TESTING_MX</t>
+        </is>
+      </c>
+      <c r="C27" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>All Testing phase tasks</t>
+        </is>
+      </c>
+      <c r="E27" s="21" t="inlineStr"/>
+      <c r="F27" s="21" t="inlineStr"/>
+      <c r="G27" s="21" t="inlineStr"/>
+      <c r="H27" s="21" t="inlineStr"/>
+      <c r="I27" s="21" t="inlineStr"/>
+      <c r="J27" s="21" t="inlineStr"/>
+      <c r="K27" s="21" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>DEPLOYMENT_MX</t>
+        </is>
+      </c>
+      <c r="C28" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>All Deployment phase tasks</t>
+        </is>
+      </c>
+      <c r="E28" s="10" t="inlineStr"/>
+      <c r="F28" s="10" t="inlineStr"/>
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="10" t="inlineStr"/>
+      <c r="I28" s="10" t="inlineStr"/>
+      <c r="J28" s="10" t="inlineStr"/>
+      <c r="K28" s="10" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t>TRAINING_MX</t>
+        </is>
+      </c>
+      <c r="C29" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>All Training phase tasks</t>
+        </is>
+      </c>
+      <c r="E29" s="21" t="inlineStr"/>
+      <c r="F29" s="21" t="inlineStr"/>
+      <c r="G29" s="21" t="inlineStr"/>
+      <c r="H29" s="21" t="inlineStr"/>
+      <c r="I29" s="21" t="inlineStr"/>
+      <c r="J29" s="21" t="inlineStr"/>
+      <c r="K29" s="21" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>CLOSEOUT_MX</t>
+        </is>
+      </c>
+      <c r="C30" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>All Closeout phase tasks</t>
+        </is>
+      </c>
+      <c r="E30" s="10" t="inlineStr"/>
+      <c r="F30" s="10" t="inlineStr"/>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="10" t="inlineStr"/>
+      <c r="I30" s="10" t="inlineStr"/>
+      <c r="J30" s="10" t="inlineStr"/>
+      <c r="K30" s="10" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t>MANAGEMENT_MX</t>
+        </is>
+      </c>
+      <c r="C31" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="21" t="inlineStr">
+        <is>
+          <t>Project Management overhead</t>
+        </is>
+      </c>
+      <c r="E31" s="21" t="inlineStr"/>
+      <c r="F31" s="21" t="inlineStr"/>
+      <c r="G31" s="21" t="inlineStr"/>
+      <c r="H31" s="21" t="inlineStr"/>
+      <c r="I31" s="21" t="inlineStr"/>
+      <c r="J31" s="21" t="inlineStr"/>
+      <c r="K31" s="21" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>LEADERSHIP_MX</t>
+        </is>
+      </c>
+      <c r="C32" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>Technical Leadership overhead</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr"/>
+      <c r="F32" s="10" t="inlineStr"/>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="10" t="inlineStr"/>
+      <c r="I32" s="10" t="inlineStr"/>
+      <c r="J32" s="10" t="inlineStr"/>
+      <c r="K32" s="10" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="21" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr"/>
+      <c r="C33" s="26" t="inlineStr"/>
+      <c r="D33" s="21" t="inlineStr"/>
+      <c r="E33" s="21" t="inlineStr"/>
+      <c r="F33" s="21" t="inlineStr"/>
+      <c r="G33" s="21" t="inlineStr"/>
+      <c r="H33" s="21" t="inlineStr"/>
+      <c r="I33" s="21" t="inlineStr"/>
+      <c r="J33" s="21" t="inlineStr"/>
+      <c r="K33" s="21" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
@@ -876,7 +1994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -898,7 +2016,1597 @@
     <col width="60" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1"/>
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>Work Package</t>
+        </is>
+      </c>
+      <c r="C1" s="19" t="inlineStr">
+        <is>
+          <t>Task Description</t>
+        </is>
+      </c>
+      <c r="D1" s="19" t="inlineStr">
+        <is>
+          <t>Resource Type</t>
+        </is>
+      </c>
+      <c r="E1" s="19" t="inlineStr">
+        <is>
+          <t>Base Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="19" t="inlineStr">
+        <is>
+          <t>Effort Multiplier</t>
+        </is>
+      </c>
+      <c r="G1" s="19" t="inlineStr">
+        <is>
+          <t>Actual Hours</t>
+        </is>
+      </c>
+      <c r="H1" s="19" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="I1" s="19" t="inlineStr">
+        <is>
+          <t>Cost Estimate</t>
+        </is>
+      </c>
+      <c r="J1" s="19" t="inlineStr">
+        <is>
+          <t>Dependencies</t>
+        </is>
+      </c>
+      <c r="K1" s="19" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Azure Requirements Gathering</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>Conduct stakeholder interviews for Azure cloud strategy</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E2" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G2" s="10">
+        <f>$E2*$F2</f>
+        <v/>
+      </c>
+      <c r="H2" s="29" t="n">
+        <v>150</v>
+      </c>
+      <c r="I2" s="10">
+        <f>TEXT($G2*$H2</f>
+        <v/>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M2" s="10" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Current Environment Assessment</t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>Analyze existing infrastructure and Azure readiness</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G3" s="21">
+        <f>$E3*$F3</f>
+        <v/>
+      </c>
+      <c r="H3" s="31" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="21">
+        <f>TEXT($G3*$H3</f>
+        <v/>
+      </c>
+      <c r="J3" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K3" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L3" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M3" s="21" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>Azure Services Assessment</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Evaluate Azure services and landing zone requirements</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G4" s="10">
+        <f>$E4*$F4</f>
+        <v/>
+      </c>
+      <c r="H4" s="29" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="10">
+        <f>TEXT($G4*$H4</f>
+        <v/>
+      </c>
+      <c r="J4" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>Compliance Review</t>
+        </is>
+      </c>
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>Assess governance security and regulatory requirements</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E5" s="30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G5" s="21">
+        <f>$E5*$F5</f>
+        <v/>
+      </c>
+      <c r="H5" s="31" t="n">
+        <v>175</v>
+      </c>
+      <c r="I5" s="21">
+        <f>TEXT($G5*$H5</f>
+        <v/>
+      </c>
+      <c r="J5" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K5" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L5" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M5" s="21" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Design</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>Design Azure landing zone architecture and governance model</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E6" s="27" t="n">
+        <v>48</v>
+      </c>
+      <c r="F6" s="28">
+        <f>'Estimate Settings'!$C$25</f>
+        <v/>
+      </c>
+      <c r="G6" s="10">
+        <f>$E6*$F6</f>
+        <v/>
+      </c>
+      <c r="H6" s="29" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="10">
+        <f>TEXT($G6*$H6</f>
+        <v/>
+      </c>
+      <c r="J6" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M6" s="10" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Design</t>
+        </is>
+      </c>
+      <c r="C7" s="21" t="inlineStr">
+        <is>
+          <t>Design Azure AD integration and access management strategy</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E7" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" s="28">
+        <f>'Estimate Settings'!$C$25</f>
+        <v/>
+      </c>
+      <c r="G7" s="21">
+        <f>$E7*$F7</f>
+        <v/>
+      </c>
+      <c r="H7" s="31" t="n">
+        <v>180</v>
+      </c>
+      <c r="I7" s="21">
+        <f>TEXT($G7*$H7</f>
+        <v/>
+      </c>
+      <c r="J7" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K7" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L7" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M7" s="21" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Network Architecture Design</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Design Azure networking security and hybrid connectivity</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E8" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" s="28">
+        <f>'Estimate Settings'!$C$25</f>
+        <v/>
+      </c>
+      <c r="G8" s="10">
+        <f>$E8*$F8</f>
+        <v/>
+      </c>
+      <c r="H8" s="29" t="n">
+        <v>175</v>
+      </c>
+      <c r="I8" s="10">
+        <f>TEXT($G8*$H8</f>
+        <v/>
+      </c>
+      <c r="J8" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M8" s="10" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>Project Planning</t>
+        </is>
+      </c>
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>Develop Azure implementation timeline and resource allocation</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E9" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" s="28">
+        <f>'Estimate Settings'!$C$25</f>
+        <v/>
+      </c>
+      <c r="G9" s="21">
+        <f>$E9*$F9</f>
+        <v/>
+      </c>
+      <c r="H9" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="I9" s="21">
+        <f>TEXT($G9*$H9</f>
+        <v/>
+      </c>
+      <c r="J9" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K9" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L9" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M9" s="21" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>Management Groups and Subscriptions</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>Configure Azure management groups subscription structure and policies</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G10" s="10">
+        <f>$E10*$F10</f>
+        <v/>
+      </c>
+      <c r="H10" s="29" t="n">
+        <v>160</v>
+      </c>
+      <c r="I10" s="10">
+        <f>TEXT($G10*$H10</f>
+        <v/>
+      </c>
+      <c r="J10" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L10" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M10" s="10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy Implementation</t>
+        </is>
+      </c>
+      <c r="C11" s="21" t="inlineStr">
+        <is>
+          <t>Implement Azure policies governance controls and compliance</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G11" s="21">
+        <f>$E11*$F11</f>
+        <v/>
+      </c>
+      <c r="H11" s="31" t="n">
+        <v>145</v>
+      </c>
+      <c r="I11" s="21">
+        <f>TEXT($G11*$H11</f>
+        <v/>
+      </c>
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K11" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L11" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M11" s="21" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Network Infrastructure</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Build Azure networking VNet peering and hybrid connectivity</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E12" s="27" t="n">
+        <v>48</v>
+      </c>
+      <c r="F12" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G12" s="10">
+        <f>$E12*$F12</f>
+        <v/>
+      </c>
+      <c r="H12" s="29" t="n">
+        <v>140</v>
+      </c>
+      <c r="I12" s="10">
+        <f>TEXT($G12*$H12</f>
+        <v/>
+      </c>
+      <c r="J12" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K12" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L12" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M12" s="10" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>Identity and Access Implementation</t>
+        </is>
+      </c>
+      <c r="C13" s="21" t="inlineStr">
+        <is>
+          <t>Implement Azure AD integration access controls and SSO</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E13" s="30" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G13" s="21">
+        <f>$E13*$F13</f>
+        <v/>
+      </c>
+      <c r="H13" s="31" t="n">
+        <v>155</v>
+      </c>
+      <c r="I13" s="21">
+        <f>TEXT($G13*$H13</f>
+        <v/>
+      </c>
+      <c r="J13" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K13" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L13" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M13" s="21" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Monitoring and Operations</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Build Azure monitoring logging alerting and operational tools</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E14" s="27" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G14" s="10">
+        <f>$E14*$F14</f>
+        <v/>
+      </c>
+      <c r="H14" s="29" t="n">
+        <v>130</v>
+      </c>
+      <c r="I14" s="10">
+        <f>TEXT($G14*$H14</f>
+        <v/>
+      </c>
+      <c r="J14" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K14" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L14" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M14" s="10" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>Unit Testing</t>
+        </is>
+      </c>
+      <c r="C15" s="21" t="inlineStr">
+        <is>
+          <t>Develop automated tests for all solution components</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E15" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F15" s="28">
+        <f>'Estimate Settings'!$C$27</f>
+        <v/>
+      </c>
+      <c r="G15" s="21">
+        <f>$E15*$F15</f>
+        <v/>
+      </c>
+      <c r="H15" s="31" t="n">
+        <v>120</v>
+      </c>
+      <c r="I15" s="21">
+        <f>TEXT($G15*$H15</f>
+        <v/>
+      </c>
+      <c r="J15" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K15" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L15" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M15" s="21" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Integration Testing</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Test system integrations data flows and external dependencies</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E16" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" s="28">
+        <f>'Estimate Settings'!$C$27</f>
+        <v/>
+      </c>
+      <c r="G16" s="10">
+        <f>$E16*$F16</f>
+        <v/>
+      </c>
+      <c r="H16" s="29" t="n">
+        <v>120</v>
+      </c>
+      <c r="I16" s="10">
+        <f>TEXT($G16*$H16</f>
+        <v/>
+      </c>
+      <c r="J16" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K16" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L16" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M16" s="10" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B17" s="21" t="inlineStr">
+        <is>
+          <t>Performance Testing</t>
+        </is>
+      </c>
+      <c r="C17" s="21" t="inlineStr">
+        <is>
+          <t>Conduct load performance and scalability testing</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E17" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="28">
+        <f>'Estimate Settings'!$C$27</f>
+        <v/>
+      </c>
+      <c r="G17" s="21">
+        <f>$E17*$F17</f>
+        <v/>
+      </c>
+      <c r="H17" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="I17" s="21">
+        <f>TEXT($G17*$H17</f>
+        <v/>
+      </c>
+      <c r="J17" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K17" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L17" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M17" s="21" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>Security Testing</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Perform security assessments penetration testing and compliance validation</t>
+        </is>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E18" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="28">
+        <f>'Estimate Settings'!$C$27</f>
+        <v/>
+      </c>
+      <c r="G18" s="10">
+        <f>$E18*$F18</f>
+        <v/>
+      </c>
+      <c r="H18" s="29" t="n">
+        <v>175</v>
+      </c>
+      <c r="I18" s="10">
+        <f>TEXT($G18*$H18</f>
+        <v/>
+      </c>
+      <c r="J18" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K18" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L18" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M18" s="10" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B19" s="21" t="inlineStr">
+        <is>
+          <t>User Acceptance Testing</t>
+        </is>
+      </c>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>Coordinate UAT with business users and stakeholders</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E19" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F19" s="28">
+        <f>'Estimate Settings'!$C$27</f>
+        <v/>
+      </c>
+      <c r="G19" s="21">
+        <f>$E19*$F19</f>
+        <v/>
+      </c>
+      <c r="H19" s="31" t="n">
+        <v>150</v>
+      </c>
+      <c r="I19" s="21">
+        <f>TEXT($G19*$H19</f>
+        <v/>
+      </c>
+      <c r="J19" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K19" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L19" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M19" s="21" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>Production Deployment</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Deploy solution to production environment with monitoring</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E20" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F20" s="28">
+        <f>'Estimate Settings'!$C$28</f>
+        <v/>
+      </c>
+      <c r="G20" s="10">
+        <f>$E20*$F20</f>
+        <v/>
+      </c>
+      <c r="H20" s="29" t="n">
+        <v>160</v>
+      </c>
+      <c r="I20" s="10">
+        <f>TEXT($G20*$H20</f>
+        <v/>
+      </c>
+      <c r="J20" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K20" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L20" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M20" s="10" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>Go-Live Support</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>Provide comprehensive support during initial production rollout</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E21" s="30" t="n">
+        <v>48</v>
+      </c>
+      <c r="F21" s="28">
+        <f>'Estimate Settings'!$C$28</f>
+        <v/>
+      </c>
+      <c r="G21" s="21">
+        <f>$E21*$F21</f>
+        <v/>
+      </c>
+      <c r="H21" s="31" t="n">
+        <v>110</v>
+      </c>
+      <c r="I21" s="21">
+        <f>TEXT($G21*$H21</f>
+        <v/>
+      </c>
+      <c r="J21" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K21" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L21" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M21" s="21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Administrator Training</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Train system administrators and technical support teams</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E22" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="28">
+        <f>'Estimate Settings'!$C$29</f>
+        <v/>
+      </c>
+      <c r="G22" s="10">
+        <f>$E22*$F22</f>
+        <v/>
+      </c>
+      <c r="H22" s="29" t="n">
+        <v>130</v>
+      </c>
+      <c r="I22" s="10">
+        <f>TEXT($G22*$H22</f>
+        <v/>
+      </c>
+      <c r="J22" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K22" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L22" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M22" s="10" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>End User Training</t>
+        </is>
+      </c>
+      <c r="C23" s="21" t="inlineStr">
+        <is>
+          <t>Train business users on solution functionality and workflows</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E23" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F23" s="28">
+        <f>'Estimate Settings'!$C$29</f>
+        <v/>
+      </c>
+      <c r="G23" s="21">
+        <f>$E23*$F23</f>
+        <v/>
+      </c>
+      <c r="H23" s="31" t="n">
+        <v>120</v>
+      </c>
+      <c r="I23" s="21">
+        <f>TEXT($G23*$H23</f>
+        <v/>
+      </c>
+      <c r="J23" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K23" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L23" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M23" s="21" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Create comprehensive technical and user documentation</t>
+        </is>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E24" s="27" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" s="28">
+        <f>'Estimate Settings'!$C$29</f>
+        <v/>
+      </c>
+      <c r="G24" s="10">
+        <f>$E24*$F24</f>
+        <v/>
+      </c>
+      <c r="H24" s="29" t="n">
+        <v>110</v>
+      </c>
+      <c r="I24" s="10">
+        <f>TEXT($G24*$H24</f>
+        <v/>
+      </c>
+      <c r="J24" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K24" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L24" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M24" s="10" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>Knowledge Transfer</t>
+        </is>
+      </c>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>Transfer solution ownership to operations and support teams</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E25" s="30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="28">
+        <f>'Estimate Settings'!$C$30</f>
+        <v/>
+      </c>
+      <c r="G25" s="21">
+        <f>$E25*$F25</f>
+        <v/>
+      </c>
+      <c r="H25" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="I25" s="21">
+        <f>TEXT($G25*$H25</f>
+        <v/>
+      </c>
+      <c r="J25" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K25" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L25" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M25" s="21" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>Performance Baseline</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Establish performance metrics monitoring baselines and SLAs</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E26" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" s="28">
+        <f>'Estimate Settings'!$C$30</f>
+        <v/>
+      </c>
+      <c r="G26" s="10">
+        <f>$E26*$F26</f>
+        <v/>
+      </c>
+      <c r="H26" s="29" t="n">
+        <v>130</v>
+      </c>
+      <c r="I26" s="10">
+        <f>TEXT($G26*$H26</f>
+        <v/>
+      </c>
+      <c r="J26" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="K26" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="L26" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="M26" s="10" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>Technical Leadership</t>
+        </is>
+      </c>
+      <c r="C27" s="21" t="inlineStr">
+        <is>
+          <t>Quarterback technical oversight and architecture review</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>EO Quarterback</t>
+        </is>
+      </c>
+      <c r="E27" s="21">
+        <f>ROUND(SUM(E2:E26)*0.25,='Estimate Settings'!$C$31,=$E27*$F27,0)</f>
+        <v/>
+      </c>
+      <c r="F27" s="28">
+        <f>TEXT($G27*$H27</f>
+        <v/>
+      </c>
+      <c r="G27" s="21" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="H27" s="21" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="I27" s="21">
+        <f>TEXT(E27*F27,##0")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Project coordination and management activities</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>EO Project Manager</t>
+        </is>
+      </c>
+      <c r="E28" s="10">
+        <f>ROUND(SUM(E2:E26)*0.20,='Estimate Settings'!$C$31,=$E28*$F28,0)</f>
+        <v/>
+      </c>
+      <c r="F28" s="28">
+        <f>TEXT($G28*$H28</f>
+        <v/>
+      </c>
+      <c r="G28" s="10" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="H28" s="10" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="I28" s="10">
+        <f>TEXT(E28*F28,##0")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="28" t="inlineStr"/>
+      <c r="B29" s="28" t="inlineStr"/>
+      <c r="C29" s="28" t="inlineStr"/>
+      <c r="D29" s="28" t="inlineStr"/>
+      <c r="E29" s="32" t="inlineStr"/>
+      <c r="F29" s="16" t="inlineStr">
+        <is>
+          <t>TOTAL HOURS</t>
+        </is>
+      </c>
+      <c r="G29" s="16">
+        <f>SUM($G$2:$G$28)</f>
+        <v/>
+      </c>
+      <c r="H29" s="16" t="inlineStr">
+        <is>
+          <t>TOTAL COST</t>
+        </is>
+      </c>
+      <c r="I29" s="16">
+        <f>TEXT(SUMPRODUCT($G$2:$G$28</f>
+        <v/>
+      </c>
+      <c r="J29" s="16" t="inlineStr">
+        <is>
+          <t>$H$33:$H$59)</t>
+        </is>
+      </c>
+      <c r="K29" s="16" t="inlineStr">
+        <is>
+          <t>$#</t>
+        </is>
+      </c>
+      <c r="L29" s="16" t="inlineStr">
+        <is>
+          <t>##0"")</t>
+        </is>
+      </c>
+      <c r="M29" s="28" t="inlineStr"/>
+      <c r="N29" s="16" t="inlineStr">
+        <is>
+          <t>EO Sales Engineer: Update multipliers based on customer scope</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solutions/azure/devops/enterprise-platform/presales/level-of-effort-estimate.xlsx
+++ b/solutions/azure/devops/enterprise-platform/presales/level-of-effort-estimate.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>November 16, 2025</t>
+          <t>November 18, 2025</t>
         </is>
       </c>
     </row>
